--- a/Design/Screen/SCreenDesignDemo.xlsx
+++ b/Design/Screen/SCreenDesignDemo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\FS_Final\Design\Screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F36FB8-03DA-4AD1-B6E3-95A1FC76CAF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606780E-E37F-4868-B89D-636A9ED43C27}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20337" windowHeight="8695" xr2:uid="{931E386A-477E-42F4-B868-880A31CD06B1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Let the League Commence</t>
   </si>
@@ -72,12 +72,15 @@
   <si>
     <t xml:space="preserve"> INFORMATION TEAM</t>
   </si>
+  <si>
+    <t>…...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +131,6 @@
     <font>
       <b/>
       <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -157,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,17 +332,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -369,21 +359,36 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,6 +407,97 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,54 +516,31 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,68 +556,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,15 +584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9221</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>493</xdr:rowOff>
+      <xdr:colOff>200358</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>212020</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>134878</xdr:rowOff>
+      <xdr:colOff>405603</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -590,8 +607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="682461" y="563200"/>
-          <a:ext cx="2222518" cy="315257"/>
+          <a:off x="875607" y="1477903"/>
+          <a:ext cx="2230993" cy="307982"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -652,15 +669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>10756</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>135193</xdr:rowOff>
+      <xdr:colOff>267967</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>237696</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:colOff>494907</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>169269</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="686005" y="3012036"/>
-          <a:ext cx="2252688" cy="200133"/>
+          <a:off x="943216" y="4220309"/>
+          <a:ext cx="2252688" cy="422486"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -735,6 +752,163 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>201840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404639</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E3E87F-EEB1-496C-A596-86E861B4A96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="874643" y="526009"/>
+          <a:ext cx="2221206" cy="434263"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>INPUT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> FILE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207956</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>483194</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD68D5D4-9033-4847-8E59-FCC6765EBDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8281588" y="489312"/>
+          <a:ext cx="948041" cy="513776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Process</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1623,93 +1797,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3181F06E-D98B-4E1F-9A38-BCECFDAF3F24}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:14" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-    </row>
-    <row r="2" spans="2:14" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="52"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
+    </row>
+    <row r="2" spans="2:14" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+    </row>
+    <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="37"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1717,422 +1893,513 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="37"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="76"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="62" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
-    </row>
-    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="53"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="54"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="54"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="54"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="54"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="54"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="57"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="52"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="52"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="52"/>
-    </row>
-    <row r="19" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="52"/>
-    </row>
-    <row r="20" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="62" t="s">
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="76"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="76"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="76"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="76"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="76"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="62" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
-    </row>
-    <row r="21" spans="2:14" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="68"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="61"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="54"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="54"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="54"/>
-    </row>
-    <row r="26" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="54"/>
-    </row>
-    <row r="27" spans="2:14" ht="13.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="54"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="2:14" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="54"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="54"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="54"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="54"/>
-    </row>
-    <row r="32" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B22:F32"/>
-    <mergeCell ref="G22:N32"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:N21"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="B9:G15"/>
-    <mergeCell ref="I9:N15"/>
+  <mergeCells count="11">
     <mergeCell ref="B1:N2"/>
-    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="F4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B12:G13"/>
+    <mergeCell ref="I12:N13"/>
+    <mergeCell ref="B14:G20"/>
+    <mergeCell ref="I14:N20"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="G26:N27"/>
+    <mergeCell ref="B28:F38"/>
+    <mergeCell ref="G28:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2156,13 +2423,13 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -2175,11 +2442,11 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -2187,8 +2454,8 @@
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2206,26 +2473,26 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="48"/>
+      <c r="L4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="28" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -2237,12 +2504,12 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -2373,18 +2640,18 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="32"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -2396,12 +2663,12 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -2528,40 +2795,40 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="18" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="19"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="52"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="21"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
@@ -2686,17 +2953,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="J4:K5"/>
     <mergeCell ref="D22:E23"/>
     <mergeCell ref="F22:H23"/>
     <mergeCell ref="I22:N23"/>
     <mergeCell ref="J13:K14"/>
     <mergeCell ref="L13:M14"/>
     <mergeCell ref="N13:O14"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="J4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
